--- a/result_type.xlsx
+++ b/result_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70916\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70916\Desktop\TASINFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F9FF4-082B-41E9-B251-D36DE5E59E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319200D-5508-4AC1-B3F3-EF6651264708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>比赛项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>mypy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/2018-hse-ml-competion-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/hippskill/press-vowpal-wabbit-to-win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,16 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="9.5" customWidth="1"/>
@@ -505,6 +513,43 @@
       <c r="K3">
         <f>(H3+I3)/C3</f>
         <v>0.90243902439024393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f>(D4+E4)/C4</f>
+        <v>0.68</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <f>(H4+I4)/C4</f>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>
@@ -515,6 +560,8 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{735C9856-19EB-420B-8C58-658AE0D7FFF4}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{B833D130-05D4-46EF-81B0-D11730AFE9F5}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{7478E201-8461-43FE-AC04-02AC45EFF772}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{FB424078-83DC-4591-B86A-945FE1A48C0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result_type.xlsx
+++ b/result_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70916\Desktop\TASINFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C319200D-5508-4AC1-B3F3-EF6651264708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE7C72-DC93-41ED-AEE0-D35B4C5A6B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>比赛项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,14 @@
   </si>
   <si>
     <t>https://www.kaggle.com/hippskill/press-vowpal-wabbit-to-win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aawadall/deep-neural-net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/digit-recognizer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,16 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="9.5" customWidth="1"/>
@@ -550,6 +558,43 @@
       <c r="K4">
         <f>(H4+I4)/C4</f>
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f>(D5+E5)/C5</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H5">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <f>(H5+I5)/C5</f>
+        <v>0.87142857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -562,6 +607,8 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{B833D130-05D4-46EF-81B0-D11730AFE9F5}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{7478E201-8461-43FE-AC04-02AC45EFF772}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{FB424078-83DC-4591-B86A-945FE1A48C0C}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{C57D1CD3-15E4-4E10-9E1B-8AB63A7F90BA}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{F2A0BF90-83F2-44C4-BBDF-50568999BC00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/result_type.xlsx
+++ b/result_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70916\Desktop\TASINFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADE7C72-DC93-41ED-AEE0-D35B4C5A6B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C9746-DBA4-43FB-94FD-7334CC0EFCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="2" max="2" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="9.5" customWidth="1"/>

--- a/result_type.xlsx
+++ b/result_type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70916\Desktop\TASINFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C9746-DBA4-43FB-94FD-7334CC0EFCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD76817B-FC97-46C3-87D6-040CFF59E027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>比赛项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,22 @@
   </si>
   <si>
     <t>https://www.kaggle.com/c/digit-recognizer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/afabris/prova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/airbnb-recruiting-new-user-bookings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/itodorovic/boxcox-ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/c/allstate-claims-severity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,16 +444,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.625" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="6" width="9.5" customWidth="1"/>
@@ -595,6 +611,80 @@
       <c r="K5">
         <f>(H5+I5)/C5</f>
         <v>0.87142857142857144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>(D6+E6)/C6</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>(H6+I6)/C6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f>(D7+E7)/C7</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f>(H7+I7)/C7</f>
+        <v>0.78260869565217395</v>
       </c>
     </row>
   </sheetData>
@@ -609,6 +699,10 @@
     <hyperlink ref="B4" r:id="rId4" xr:uid="{FB424078-83DC-4591-B86A-945FE1A48C0C}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{C57D1CD3-15E4-4E10-9E1B-8AB63A7F90BA}"/>
     <hyperlink ref="A5" r:id="rId6" xr:uid="{F2A0BF90-83F2-44C4-BBDF-50568999BC00}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{610D5771-5B91-4E41-A3D7-93009628F0B9}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{CED0E79C-E8F3-4437-928C-31EED4CCE3DE}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{17ECA40F-EBE3-424C-8270-591229FC4F64}"/>
+    <hyperlink ref="A7" r:id="rId10" xr:uid="{F7C68C49-BB7C-4566-A6A6-DCF2B7A5F460}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
